--- a/Projects/CCBZA/Data/Template_QSR.xlsx
+++ b/Projects/CCBZA/Data/Template_QSR.xlsx
@@ -20,6 +20,7 @@
     <definedName function="false" hidden="true" localSheetId="4" name="_xlnm._FilterDatabase" vbProcedure="false">Availability!$A$1:$S$13</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_FilterDatabase_0" vbProcedure="false">Availability!$A$1:$S$13</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase" vbProcedure="false">Availability!$A$1:$S$13</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0" vbProcedure="false">Availability!$A$1:$S$13</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -405,7 +406,7 @@
     <t xml:space="preserve">SSD</t>
   </si>
   <si>
-    <t xml:space="preserve">Category</t>
+    <t xml:space="preserve">category</t>
   </si>
 </sst>
 </file>
@@ -715,19 +716,19 @@
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C8" activeCellId="0" sqref="C8"/>
+      <selection pane="topLeft" activeCell="C16" activeCellId="0" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="35.0744186046512"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.7813953488372"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="40.1162790697674"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="19.4418604651163"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="42.4558139534884"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="20.6744186046512"/>
-    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="20.0604651162791"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="9.84651162790698"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="36.1813953488372"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="30.6418604651163"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="41.3488372093023"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="20.0604651162791"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="43.6883720930233"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="21.1674418604651"/>
+    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="20.553488372093"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="10.093023255814"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1097,19 +1098,19 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="31.1348837209302"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="55.7488372093023"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="113.218604651163"/>
-    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="9.84651162790698"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="11.0744186046512"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="10.706976744186"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="66.6976744186047"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="9.84651162790698"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="31.9953488372093"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="57.3488372093023"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="116.66511627907"/>
+    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="10.093023255814"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="11.446511627907"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="11.0744186046512"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="68.7906976744186"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="10.093023255814"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1189,21 +1190,21 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.4418604651163"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="76.2976744186047"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.5348837209302"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="18.953488372093"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="9.35348837209302"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="17.7209302325581"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="11.8139534883721"/>
-    <col collapsed="false" hidden="false" max="11" min="9" style="0" width="6.76744186046512"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="21.5348837209302"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="16.9813953488372"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="10.706976744186"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="11.446511627907"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="12.4279069767442"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="56.6093023255814"/>
-    <col collapsed="false" hidden="false" max="1025" min="18" style="0" width="9.84651162790698"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.0604651162791"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="78.5116279069767"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.906976744186"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="19.5674418604651"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="9.6"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="18.2139534883721"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="12.1813953488372"/>
+    <col collapsed="false" hidden="false" max="11" min="9" style="0" width="6.89302325581395"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="22.153488372093"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="17.4744186046512"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="11.0744186046512"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="11.8139534883721"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="12.6744186046512"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="58.3302325581395"/>
+    <col collapsed="false" hidden="false" max="1025" min="18" style="0" width="10.093023255814"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1363,20 +1364,20 @@
   <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A9" activeCellId="0" sqref="A9"/>
+      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.2744186046512"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="116.293023255814"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="63.9906976744186"/>
-    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="16.6139534883721"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="21.5348837209302"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="11.0744186046512"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="16.9813953488372"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="10.706976744186"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="9.84651162790698"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.8883720930233"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="119.739534883721"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="65.9627906976744"/>
+    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="17.106976744186"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="22.153488372093"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="11.446511627907"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="17.4744186046512"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="11.0744186046512"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="10.093023255814"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1717,31 +1718,31 @@
   </sheetPr>
   <dimension ref="A1:S13"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D11" activeCellId="0" sqref="D11"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F13" activeCellId="0" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.8"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="51.6883720930233"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="28.5488372093023"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="31.1348837209302"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="18.0883720930233"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="16" width="34.9488372093023"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="5.90697674418605"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="7.87441860465116"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="6.52093023255814"/>
-    <col collapsed="false" hidden="false" max="12" min="10" style="0" width="6.64651162790698"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="6.27441860465116"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="10.706976744186"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="14.646511627907"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="10.4604651162791"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="9.84651162790698"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="8.73953488372093"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="36.1813953488372"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.046511627907"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="53.2837209302326"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="29.2883720930233"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="31.9953488372093"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="18.5813953488372"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="16" width="36.0558139534884"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="6.02790697674419"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="8"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="6.64651162790698"/>
+    <col collapsed="false" hidden="false" max="12" min="10" style="0" width="6.76744186046512"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="6.4"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="11.0744186046512"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="15.0139534883721"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="10.706976744186"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="10.093023255814"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="8.98139534883721"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="37.1627906976744"/>
     <col collapsed="false" hidden="false" max="20" min="20" style="0" width="4.06046511627907"/>
-    <col collapsed="false" hidden="false" max="1025" min="21" style="0" width="9.35348837209302"/>
+    <col collapsed="false" hidden="false" max="1025" min="21" style="0" width="9.6"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2353,29 +2354,29 @@
   </sheetPr>
   <dimension ref="A1:S3"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A14" activeCellId="0" sqref="A14"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G3" activeCellId="0" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="31.1348837209302"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="51.8093023255814"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="28.5488372093023"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="46.3953488372093"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="29.0418604651163"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="25.5953488372093"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="31.1348837209302"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="19.8139534883721"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="42.5813953488372"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="29.0418604651163"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="25.8418604651163"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="31.1348837209302"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="19.8139534883721"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="6.89302325581395"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="11.0744186046512"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="17.6"/>
-    <col collapsed="false" hidden="false" max="1025" min="17" style="0" width="9.84651162790698"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="31.9953488372093"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="53.2837209302326"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="29.2883720930233"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="47.7488372093023"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="29.7813953488372"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="26.3348837209302"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="31.9953488372093"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="20.4279069767442"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="43.9348837209302"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="29.7813953488372"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="26.5813953488372"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="31.9953488372093"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="20.4279069767442"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="7.01395348837209"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="11.446511627907"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="18.0883720930233"/>
+    <col collapsed="false" hidden="false" max="1025" min="17" style="0" width="10.093023255814"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2553,9 +2554,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.84651162790698"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.8744186046512"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="9.84651162790698"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.093023255814"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.246511627907"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="10.093023255814"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/Projects/CCBZA/Data/Template_QSR.xlsx
+++ b/Projects/CCBZA/Data/Template_QSR.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="5"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="KPI" sheetId="1" state="visible" r:id="rId2"/>
@@ -21,6 +21,7 @@
     <definedName function="false" hidden="false" localSheetId="4" name="_FilterDatabase_0" vbProcedure="false">Availability!$A$1:$S$13</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase" vbProcedure="false">Availability!$A$1:$S$13</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0" vbProcedure="false">Availability!$A$1:$S$13</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Availability!$A$1:$S$13</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="124">
   <si>
     <t xml:space="preserve">Set Name</t>
   </si>
@@ -130,7 +131,7 @@
     <t xml:space="preserve">Atomic KPI Name</t>
   </si>
   <si>
-    <t xml:space="preserve">Template Display Name</t>
+    <t xml:space="preserve">Template Name</t>
   </si>
   <si>
     <t xml:space="preserve">Target</t>
@@ -161,9 +162,6 @@
   </si>
   <si>
     <t xml:space="preserve">At least one template should pass the planogram for this KPI to pass</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Template Name</t>
   </si>
   <si>
     <t xml:space="preserve">type1</t>
@@ -721,14 +719,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="36.1813953488372"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="30.6418604651163"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="41.3488372093023"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="20.0604651162791"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="43.6883720930233"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="21.1674418604651"/>
-    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="20.553488372093"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="10.093023255814"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="37.1627906976744"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="31.5023255813953"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="42.5813953488372"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="20.553488372093"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="45.0418604651163"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="21.6604651162791"/>
+    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="21.0418604651163"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="10.3395348837209"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1097,20 +1095,20 @@
   </sheetPr>
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="31.9953488372093"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="57.3488372093023"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="116.66511627907"/>
-    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="10.093023255814"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="11.446511627907"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="11.0744186046512"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="68.7906976744186"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="10.093023255814"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="32.9813953488372"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="59.0697674418605"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="120.106976744186"/>
+    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="10.3395348837209"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="11.8139534883721"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="11.446511627907"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="70.7627906976744"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="10.3395348837209"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1190,21 +1188,21 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.0604651162791"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="78.5116279069767"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.906976744186"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="19.5674418604651"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="9.6"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="18.2139534883721"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="12.1813953488372"/>
-    <col collapsed="false" hidden="false" max="11" min="9" style="0" width="6.89302325581395"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="22.153488372093"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="17.4744186046512"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="11.0744186046512"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="11.8139534883721"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="12.6744186046512"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="58.3302325581395"/>
-    <col collapsed="false" hidden="false" max="1025" min="18" style="0" width="10.093023255814"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.553488372093"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="80.8511627906977"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="14.2744186046512"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="20.1813953488372"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="9.84651162790698"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="18.706976744186"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="12.4279069767442"/>
+    <col collapsed="false" hidden="false" max="11" min="9" style="0" width="7.01395348837209"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="22.7674418604651"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="17.9674418604651"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="11.446511627907"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="12.1813953488372"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="12.9209302325581"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="60.0558139534884"/>
+    <col collapsed="false" hidden="false" max="1025" min="18" style="0" width="10.3395348837209"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1215,31 +1213,31 @@
         <v>31</v>
       </c>
       <c r="C1" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="E1" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="F1" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="G1" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="H1" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="I1" s="6" t="s">
         <v>48</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>49</v>
       </c>
       <c r="J1" s="6" t="s">
         <v>33</v>
       </c>
       <c r="K1" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L1" s="7" t="s">
         <v>35</v>
@@ -1251,13 +1249,13 @@
         <v>37</v>
       </c>
       <c r="O1" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="P1" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="P1" s="6" t="s">
+      <c r="Q1" s="6" t="s">
         <v>52</v>
-      </c>
-      <c r="Q1" s="6" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1369,15 +1367,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.8883720930233"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="119.739534883721"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="65.9627906976744"/>
-    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="17.106976744186"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="22.153488372093"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="11.446511627907"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="17.4744186046512"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="11.0744186046512"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="10.093023255814"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="23.506976744186"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="123.432558139535"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="67.9302325581395"/>
+    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="17.6"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="22.7674418604651"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="11.8139534883721"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="17.9674418604651"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="11.446511627907"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="10.3395348837209"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1388,16 +1386,16 @@
         <v>31</v>
       </c>
       <c r="C1" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="E1" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="E1" s="6" t="s">
-        <v>56</v>
-      </c>
       <c r="F1" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G1" s="7" t="s">
         <v>35</v>
@@ -1414,16 +1412,16 @@
         <v>10</v>
       </c>
       <c r="B2" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2" s="0" t="s">
         <v>57</v>
-      </c>
-      <c r="C2" s="0" t="s">
-        <v>58</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>28</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G2" s="9" t="s">
         <v>41</v>
@@ -1435,22 +1433,22 @@
         <v>23</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>19</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G3" s="9" t="s">
         <v>41</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1458,16 +1456,16 @@
         <v>24</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>16</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G4" s="9" t="s">
         <v>41</v>
@@ -1479,16 +1477,16 @@
         <v>25</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D5" s="0" t="n">
         <v>15</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G5" s="9" t="s">
         <v>41</v>
@@ -1500,22 +1498,22 @@
         <v>26</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D6" s="0" t="n">
         <v>36</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G6" s="9" t="s">
         <v>41</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1523,22 +1521,22 @@
         <v>27</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D7" s="0" t="n">
         <v>18</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G7" s="9" t="s">
         <v>41</v>
       </c>
       <c r="H7" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1546,16 +1544,16 @@
         <v>30</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D8" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G8" s="9" t="s">
         <v>41</v>
@@ -1566,22 +1564,22 @@
         <v>23</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D9" s="0" t="n">
         <v>20</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G9" s="9" t="s">
         <v>41</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1589,22 +1587,22 @@
         <v>23</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D10" s="0" t="n">
         <v>21</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G10" s="9" t="s">
         <v>41</v>
       </c>
       <c r="H10" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1612,22 +1610,22 @@
         <v>26</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D11" s="0" t="n">
         <v>38</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G11" s="9" t="s">
         <v>41</v>
       </c>
       <c r="H11" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1635,22 +1633,22 @@
         <v>27</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D12" s="0" t="n">
         <v>39</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G12" s="9" t="s">
         <v>41</v>
       </c>
       <c r="H12" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1658,22 +1656,22 @@
         <v>26</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D13" s="0" t="n">
         <v>38</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G13" s="9" t="s">
         <v>41</v>
       </c>
       <c r="H13" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1681,22 +1679,22 @@
         <v>27</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D14" s="0" t="n">
         <v>40</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G14" s="9" t="s">
         <v>41</v>
       </c>
       <c r="H14" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -1724,25 +1722,25 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.046511627907"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="53.2837209302326"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="29.2883720930233"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="31.9953488372093"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="18.5813953488372"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="16" width="36.0558139534884"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="6.02790697674419"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="8"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="6.64651162790698"/>
-    <col collapsed="false" hidden="false" max="12" min="10" style="0" width="6.76744186046512"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="6.4"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="11.0744186046512"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="15.0139534883721"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="10.706976744186"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="10.093023255814"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="8.98139534883721"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="37.1627906976744"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.293023255814"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="54.8837209302326"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="30.0279069767442"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="32.9813953488372"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="19.2"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="16" width="37.0418604651163"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="6.15348837209302"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="8.24651162790698"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="6.76744186046512"/>
+    <col collapsed="false" hidden="false" max="12" min="10" style="0" width="6.89302325581395"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="6.52093023255814"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="11.446511627907"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="15.3813953488372"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="11.0744186046512"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="10.3395348837209"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="9.22790697674419"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="38.1488372093023"/>
     <col collapsed="false" hidden="false" max="20" min="20" style="0" width="4.06046511627907"/>
-    <col collapsed="false" hidden="false" max="1025" min="21" style="0" width="9.6"/>
+    <col collapsed="false" hidden="false" max="1025" min="21" style="0" width="9.84651162790698"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1753,37 +1751,37 @@
         <v>31</v>
       </c>
       <c r="C1" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="K1" s="6" t="s">
         <v>73</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="F1" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="J1" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="K1" s="6" t="s">
-        <v>74</v>
       </c>
       <c r="L1" s="6" t="s">
         <v>33</v>
       </c>
       <c r="M1" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="N1" s="7" t="s">
         <v>35</v>
@@ -1795,13 +1793,13 @@
         <v>37</v>
       </c>
       <c r="Q1" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="R1" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="R1" s="6" t="s">
+      <c r="S1" s="6" t="s">
         <v>52</v>
-      </c>
-      <c r="S1" s="6" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1809,19 +1807,19 @@
         <v>18</v>
       </c>
       <c r="B2" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2" s="9" t="s">
         <v>75</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>76</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>40</v>
       </c>
       <c r="E2" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="F2" s="19" t="s">
         <v>77</v>
-      </c>
-      <c r="F2" s="19" t="s">
-        <v>78</v>
       </c>
       <c r="G2" s="9"/>
       <c r="H2" s="20"/>
@@ -1836,7 +1834,7 @@
         <v>41</v>
       </c>
       <c r="O2" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="P2" s="9"/>
       <c r="Q2" s="9" t="s">
@@ -1852,19 +1850,19 @@
         <v>20</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D3" s="9" t="s">
         <v>40</v>
       </c>
       <c r="E3" s="18" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F3" s="19" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G3" s="9"/>
       <c r="H3" s="20"/>
@@ -1879,7 +1877,7 @@
         <v>41</v>
       </c>
       <c r="O3" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="P3" s="9"/>
       <c r="Q3" s="9" t="s">
@@ -1895,19 +1893,19 @@
         <v>21</v>
       </c>
       <c r="B4" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="C4" s="9" t="s">
         <v>81</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>82</v>
       </c>
       <c r="D4" s="9" t="s">
         <v>40</v>
       </c>
       <c r="E4" s="18" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F4" s="19" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G4" s="9"/>
       <c r="H4" s="20"/>
@@ -1924,7 +1922,7 @@
         <v>41</v>
       </c>
       <c r="O4" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="P4" s="9"/>
       <c r="Q4" s="9" t="s">
@@ -1940,19 +1938,19 @@
         <v>21</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D5" s="9" t="s">
         <v>40</v>
       </c>
       <c r="E5" s="18" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F5" s="19" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G5" s="9"/>
       <c r="H5" s="20"/>
@@ -1969,7 +1967,7 @@
         <v>41</v>
       </c>
       <c r="O5" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="P5" s="9"/>
       <c r="Q5" s="9" t="s">
@@ -1985,19 +1983,19 @@
         <v>21</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D6" s="9" t="s">
         <v>40</v>
       </c>
       <c r="E6" s="18" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F6" s="19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G6" s="9"/>
       <c r="H6" s="20"/>
@@ -2014,7 +2012,7 @@
         <v>41</v>
       </c>
       <c r="O6" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="P6" s="9"/>
       <c r="Q6" s="9" t="s">
@@ -2030,19 +2028,19 @@
         <v>21</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D7" s="9" t="s">
         <v>40</v>
       </c>
       <c r="E7" s="18" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F7" s="19" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G7" s="9"/>
       <c r="H7" s="20"/>
@@ -2059,7 +2057,7 @@
         <v>41</v>
       </c>
       <c r="O7" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="P7" s="9"/>
       <c r="Q7" s="9" t="s">
@@ -2075,19 +2073,19 @@
         <v>18</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D8" s="9" t="s">
         <v>40</v>
       </c>
       <c r="E8" s="18" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F8" s="19" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G8" s="9"/>
       <c r="H8" s="20"/>
@@ -2102,7 +2100,7 @@
         <v>41</v>
       </c>
       <c r="O8" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="P8" s="9"/>
       <c r="Q8" s="9" t="s">
@@ -2118,19 +2116,19 @@
         <v>20</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D9" s="9" t="s">
         <v>40</v>
       </c>
       <c r="E9" s="18" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F9" s="19" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G9" s="9"/>
       <c r="H9" s="20"/>
@@ -2145,7 +2143,7 @@
         <v>41</v>
       </c>
       <c r="O9" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="P9" s="9"/>
       <c r="Q9" s="9" t="s">
@@ -2155,7 +2153,7 @@
         <v>16</v>
       </c>
       <c r="S9" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2163,25 +2161,25 @@
         <v>21</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D10" s="9" t="s">
         <v>40</v>
       </c>
       <c r="E10" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="F10" s="21" t="s">
         <v>96</v>
       </c>
-      <c r="F10" s="21" t="s">
+      <c r="G10" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="G10" s="9" t="s">
+      <c r="H10" s="20" t="s">
         <v>98</v>
-      </c>
-      <c r="H10" s="20" t="s">
-        <v>99</v>
       </c>
       <c r="K10" s="0" t="n">
         <v>3</v>
@@ -2193,7 +2191,7 @@
         <v>41</v>
       </c>
       <c r="O10" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="P10" s="9"/>
       <c r="Q10" s="9" t="s">
@@ -2203,7 +2201,7 @@
         <v>16</v>
       </c>
       <c r="S10" s="8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2211,19 +2209,19 @@
         <v>18</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D11" s="9" t="s">
         <v>40</v>
       </c>
       <c r="E11" s="18" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F11" s="22" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H11" s="20"/>
       <c r="L11" s="0" t="n">
@@ -2233,7 +2231,7 @@
         <v>41</v>
       </c>
       <c r="O11" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Q11" s="9" t="s">
         <v>12</v>
@@ -2247,19 +2245,19 @@
         <v>20</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D12" s="9" t="s">
         <v>40</v>
       </c>
       <c r="E12" s="18" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F12" s="22" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H12" s="20"/>
       <c r="K12" s="0" t="n">
@@ -2273,7 +2271,7 @@
         <v>41</v>
       </c>
       <c r="O12" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Q12" s="9" t="s">
         <v>12</v>
@@ -2282,7 +2280,7 @@
         <v>16</v>
       </c>
       <c r="S12" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2290,25 +2288,25 @@
         <v>21</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D13" s="9" t="s">
         <v>40</v>
       </c>
       <c r="E13" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="F13" s="21" t="s">
         <v>96</v>
       </c>
-      <c r="F13" s="21" t="s">
+      <c r="G13" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="G13" s="9" t="s">
+      <c r="H13" s="20" t="s">
         <v>98</v>
-      </c>
-      <c r="H13" s="20" t="s">
-        <v>99</v>
       </c>
       <c r="K13" s="0" t="n">
         <v>3</v>
@@ -2320,7 +2318,7 @@
         <v>41</v>
       </c>
       <c r="O13" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="P13" s="9"/>
       <c r="Q13" s="9" t="s">
@@ -2330,7 +2328,7 @@
         <v>16</v>
       </c>
       <c r="S13" s="8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -2354,29 +2352,29 @@
   </sheetPr>
   <dimension ref="A1:S3"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G3" activeCellId="0" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="31.9953488372093"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="53.2837209302326"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="29.2883720930233"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="47.7488372093023"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="29.7813953488372"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="26.3348837209302"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="31.9953488372093"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="20.4279069767442"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="43.9348837209302"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="29.7813953488372"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="26.5813953488372"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="31.9953488372093"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="20.4279069767442"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="7.01395348837209"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="11.446511627907"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="18.0883720930233"/>
-    <col collapsed="false" hidden="false" max="1025" min="17" style="0" width="10.093023255814"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="32.9813953488372"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="54.8837209302326"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="30.0279069767442"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="49.1023255813954"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="30.6418604651163"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="27.0744186046512"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="32.9813953488372"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="20.9209302325581"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="45.1627906976744"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="30.6418604651163"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="27.4418604651163"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="32.9813953488372"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="20.9209302325581"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="7.13953488372093"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="11.8139534883721"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="18.5813953488372"/>
+    <col collapsed="false" hidden="false" max="1025" min="17" style="0" width="10.3395348837209"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2387,37 +2385,37 @@
         <v>31</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="D1" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="E1" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="F1" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="G1" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="H1" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="I1" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="J1" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="K1" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="L1" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="M1" s="6" t="s">
         <v>113</v>
-      </c>
-      <c r="M1" s="6" t="s">
-        <v>114</v>
       </c>
       <c r="N1" s="6" t="s">
         <v>34</v>
@@ -2432,10 +2430,10 @@
         <v>37</v>
       </c>
       <c r="R1" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="S1" s="6" t="s">
         <v>51</v>
-      </c>
-      <c r="S1" s="6" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2443,37 +2441,37 @@
         <v>14</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C2" s="9" t="s">
         <v>40</v>
       </c>
       <c r="D2" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="E2" s="0" t="s">
         <v>116</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="F2" s="0" t="s">
         <v>117</v>
       </c>
-      <c r="F2" s="0" t="s">
-        <v>118</v>
-      </c>
       <c r="G2" s="0" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H2" s="0" t="n">
         <v>85</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J2" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="K2" s="0" t="s">
         <v>117</v>
       </c>
-      <c r="K2" s="0" t="s">
-        <v>118</v>
-      </c>
       <c r="L2" s="0" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="M2" s="0" t="n">
         <v>15</v>
@@ -2496,22 +2494,22 @@
         <v>14</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C3" s="9" t="s">
         <v>40</v>
       </c>
       <c r="D3" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="E3" s="0" t="s">
         <v>121</v>
       </c>
-      <c r="E3" s="0" t="s">
+      <c r="F3" s="0" t="s">
         <v>122</v>
       </c>
-      <c r="F3" s="0" t="s">
+      <c r="G3" s="0" t="s">
         <v>123</v>
-      </c>
-      <c r="G3" s="0" t="s">
-        <v>124</v>
       </c>
       <c r="H3" s="0" t="n">
         <v>65</v>
@@ -2554,9 +2552,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.093023255814"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.246511627907"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="10.093023255814"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.3395348837209"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.7348837209302"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="10.3395348837209"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2564,7 +2562,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="23" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="C1" s="23" t="s">
         <v>31</v>
@@ -2585,10 +2583,10 @@
         <v>37</v>
       </c>
       <c r="I1" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="J1" s="6" t="s">
         <v>51</v>
-      </c>
-      <c r="J1" s="6" t="s">
-        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/Projects/CCBZA/Data/Template_QSR.xlsx
+++ b/Projects/CCBZA/Data/Template_QSR.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="KPI" sheetId="1" state="visible" r:id="rId2"/>
@@ -22,6 +22,7 @@
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase" vbProcedure="false">Availability!$A$1:$S$13</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0" vbProcedure="false">Availability!$A$1:$S$13</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Availability!$A$1:$S$13</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Availability!$A$1:$S$13</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -719,14 +720,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="37.1627906976744"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="31.5023255813953"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="42.5813953488372"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="20.553488372093"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="45.0418604651163"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="21.6604651162791"/>
-    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="21.0418604651163"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="10.3395348837209"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="38.1488372093023"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="32.3674418604651"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="43.9348837209302"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="21.0418604651163"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="46.2697674418605"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="22.2744186046512"/>
+    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="21.5348837209302"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="10.5813953488372"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1095,20 +1096,20 @@
   </sheetPr>
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="32.9813953488372"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="59.0697674418605"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="120.106976744186"/>
-    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="10.3395348837209"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="11.8139534883721"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="11.446511627907"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="70.7627906976744"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="10.3395348837209"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="33.9674418604651"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="60.9162790697674"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="123.8"/>
+    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="10.5813953488372"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="12.1813953488372"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="11.8139534883721"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="72.8511627906977"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="10.5813953488372"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1188,21 +1189,21 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.553488372093"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="80.8511627906977"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="14.2744186046512"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="20.1813953488372"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="9.84651162790698"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="18.706976744186"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="12.4279069767442"/>
-    <col collapsed="false" hidden="false" max="11" min="9" style="0" width="7.01395348837209"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="22.7674418604651"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="17.9674418604651"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="11.446511627907"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="12.1813953488372"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="12.9209302325581"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="60.0558139534884"/>
-    <col collapsed="false" hidden="false" max="1025" min="18" style="0" width="10.3395348837209"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.0418604651163"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="83.3116279069767"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="14.646511627907"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="20.6744186046512"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="10.093023255814"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="19.3209302325581"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="12.6744186046512"/>
+    <col collapsed="false" hidden="false" max="11" min="9" style="0" width="7.13953488372093"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="23.3813953488372"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="18.4604651162791"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="11.8139534883721"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="12.4279069767442"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="13.1674418604651"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="61.7767441860465"/>
+    <col collapsed="false" hidden="false" max="1025" min="18" style="0" width="10.5813953488372"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1361,21 +1362,21 @@
   </sheetPr>
   <dimension ref="A1:I14"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E18" activeCellId="0" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="23.506976744186"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="123.432558139535"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="67.9302325581395"/>
-    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="17.6"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="22.7674418604651"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="11.8139534883721"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="17.9674418604651"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="11.446511627907"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="10.3395348837209"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="24.1209302325581"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="127.120930232558"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="69.8976744186047"/>
+    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="18.0883720930233"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="23.3813953488372"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="12.1813953488372"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="18.4604651162791"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="11.8139534883721"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="10.5813953488372"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1685,7 +1686,7 @@
         <v>57</v>
       </c>
       <c r="D14" s="0" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E14" s="9" t="s">
         <v>58</v>
@@ -1722,25 +1723,25 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.293023255814"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="54.8837209302326"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="30.0279069767442"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="32.9813953488372"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="19.2"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="16" width="37.0418604651163"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="6.15348837209302"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="8.24651162790698"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="6.76744186046512"/>
-    <col collapsed="false" hidden="false" max="12" min="10" style="0" width="6.89302325581395"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="6.52093023255814"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="11.446511627907"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="15.3813953488372"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="11.0744186046512"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="10.3395348837209"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="9.22790697674419"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="38.1488372093023"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.5348837209302"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="56.4837209302326"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="30.8883720930233"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="33.9674418604651"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="19.8139534883721"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="16" width="38.0279069767442"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="6.27441860465116"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="8.49302325581395"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="6.89302325581395"/>
+    <col collapsed="false" hidden="false" max="12" min="10" style="0" width="7.01395348837209"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="6.64651162790698"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="11.8139534883721"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="15.753488372093"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="11.446511627907"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="10.5813953488372"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="9.47441860465116"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="39.2558139534884"/>
     <col collapsed="false" hidden="false" max="20" min="20" style="0" width="4.06046511627907"/>
-    <col collapsed="false" hidden="false" max="1025" min="21" style="0" width="9.84651162790698"/>
+    <col collapsed="false" hidden="false" max="1025" min="21" style="0" width="10.093023255814"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2352,29 +2353,29 @@
   </sheetPr>
   <dimension ref="A1:S3"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G3" activeCellId="0" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="32.9813953488372"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="54.8837209302326"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="30.0279069767442"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="49.1023255813954"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="30.6418604651163"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="27.0744186046512"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="32.9813953488372"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="20.9209302325581"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="45.1627906976744"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="30.6418604651163"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="27.4418604651163"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="32.9813953488372"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="20.9209302325581"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="7.13953488372093"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="11.8139534883721"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="18.5813953488372"/>
-    <col collapsed="false" hidden="false" max="1025" min="17" style="0" width="10.3395348837209"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="33.9674418604651"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="56.4837209302326"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="30.8883720930233"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="50.5767441860465"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="31.5023255813953"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="27.9348837209302"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="33.9674418604651"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="21.4139534883721"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="46.3953488372093"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="31.5023255813953"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="28.3023255813953"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="33.9674418604651"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="21.4139534883721"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="7.26046511627907"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="12.1813953488372"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="19.2"/>
+    <col collapsed="false" hidden="false" max="1025" min="17" style="0" width="10.5813953488372"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2552,9 +2553,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.3395348837209"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.7348837209302"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="10.3395348837209"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.5813953488372"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.2279069767442"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="10.5813953488372"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/Projects/CCBZA/Data/Template_QSR.xlsx
+++ b/Projects/CCBZA/Data/Template_QSR.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="KPI" sheetId="1" state="visible" r:id="rId2"/>
@@ -20,9 +20,7 @@
     <definedName function="false" hidden="true" localSheetId="4" name="_xlnm._FilterDatabase" vbProcedure="false">Availability!$A$1:$S$13</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_FilterDatabase_0" vbProcedure="false">Availability!$A$1:$S$13</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase" vbProcedure="false">Availability!$A$1:$S$13</definedName>
-    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0" vbProcedure="false">Availability!$A$1:$S$13</definedName>
-    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Availability!$A$1:$S$13</definedName>
-    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Availability!$A$1:$S$13</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="לויעמ" vbProcedure="false">Availability!$A$1:$S$13</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -258,30 +256,30 @@
     <t xml:space="preserve">Min sku target</t>
   </si>
   <si>
-    <t xml:space="preserve">SSD IC Availability of: 300ml PET, 440ml CAN (CC, SP, FA, ST)</t>
+    <t xml:space="preserve">SSD IC Availability of: 300ml PET, 400ml CAN (CC, SP, FA, ST)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Availability SKU facing Or</t>
+  </si>
+  <si>
+    <t xml:space="preserve">product_ean_code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">90338052, 5449000234582, 90377235, 40822327</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD IC Diets Availability of: Min 2 SSD Lights or Zeros 300ml PET (CZ), 400ml can (CZ, SZ)</t>
   </si>
   <si>
     <t xml:space="preserve">Availability SKU facing And</t>
   </si>
   <si>
-    <t xml:space="preserve">product_ean_code</t>
-  </si>
-  <si>
-    <t xml:space="preserve">87126037,54492691,40822921,40822327,5449000140906,5449000106476,5449000234605,5449000195715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SSD IC Diets Availability of: Min 2 SSD Lights or Zeros 300ml PET (CZ), 440ml can (CZ, SZ)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">90375149,5449000157751,5449000230188</t>
+    <t xml:space="preserve">90375149, 5449000256928</t>
   </si>
   <si>
     <t xml:space="preserve">Stills IC available in (330ml/500ml) BA</t>
   </si>
   <si>
-    <t xml:space="preserve">Availability SKU facing Or</t>
-  </si>
-  <si>
     <t xml:space="preserve">90492853</t>
   </si>
   <si>
@@ -303,16 +301,16 @@
     <t xml:space="preserve">5060466519237,5060466515819</t>
   </si>
   <si>
-    <t xml:space="preserve">SSD IC Availability of: 440ml Can (CC, SP, FA, ST), 440ml PET (CC, SP, FA, ST, TW, SPAR)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5449000140906,5449000106476,5449000234605,5449000195715,5449000664686,5449000664723,5449000664754,5449000664747,5449000664884,5449000664846,5449000664853,5449000234643,5449000664808,5449000664839,5449000664822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SSD IC Diets Availab of Min 4 SSD 440mlCan/PET (CZ,Coke Life,Coke Light,Sprite Zero,Stoney Zero)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5449000157751,5449000230188,5449000664716,5449000664709,5449000664693,5449000664761,5449000664785,5449000664792</t>
+    <t xml:space="preserve">SSD IC Availability of: 400ml Can (CC, SP, FA, ST), 440ml PET (CC, SP, FA, ST, TW, SPAR)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5449000256836, 5449000257239, 5449000257130, 5449000257413, 5449000664686, 5449000234643, 5449000664723, 5449000664754, 5449000664747, 5449000664808, 5449000664822, 5449000664839, 5449000664846, 5449000664853</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD IC Diets Availab of Min 4 SSD 400mlCan/PET (CZ,Coke Life,Coke Light,Sprite Zero,Stoney Zero)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5449000256928, 5449000257451, 5449000664693, 5449000664716, 5449000664709, 5449000664785, 5449000664792</t>
   </si>
   <si>
     <t xml:space="preserve">Minimum 4 unique SKUs with 2 facing</t>
@@ -336,16 +334,16 @@
     <t xml:space="preserve">Minimum 3 unique SKUs with 2 facing</t>
   </si>
   <si>
-    <t xml:space="preserve">SSD IC Availab:440ml PET (CC, SP, FA, ST),  330ml Can (CC,SP,FA,ST,SPAR,SCHW)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5449000664686,5449000664754,5449000234643,5449000664808,5449000000996,5449000069429,5449000011527,5449000003201,5449000106261,5449000140760,5449000171351,5449000246479,5449000106322,5449000106292,5449000234599,5449000106421,5449000140791,5449000046413</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SSD Diets Availab: Min 4 SSD 440PET/330Can (CZ,Coke Life,Coke Light,Tab,SpZ,StZ,FZ)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5449000664716,5449000664709,5449000664693,5449000664761,5449000664785,5449000664792,5449000052407,5449000050205,5449000131805,5449000120960,5449000106704,5449000006844</t>
+    <t xml:space="preserve">SSD IC Availab:440ml PET (CC, SP, FA, ST),  300ml Can (CC,SP,FA,ST,SPAR,SCHW)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5449000664686, 5449000234643, 5449000664723, 5449000664754, 5449000664747, 5449000664808, 5449000256812, 5449000257253, 5449000257017, 5449000257109, 5449000257055, 5449000257468, 5449000257543, 5449000257635, 5449000257697, 5449000257666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD Diets Availab: Min 4 SSD 440PET/300Can (CZ,Coke Life,Coke Light,Tab,SpZ,StZ,FZ)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5449000664693, 5449000664716, 5449000664709, 5449000664785, 5449000664792, 5449000664761, 5449000256898, 5449000256973, 5449000256867, 5449000257062, 5449000257352, 5449000257178</t>
   </si>
   <si>
     <t xml:space="preserve">Condition 1 - Numerator</t>
@@ -454,7 +452,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -481,8 +479,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
-        <bgColor rgb="FF969696"/>
+        <fgColor rgb="FF00B050"/>
+        <bgColor rgb="FF008080"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor rgb="FF33CCCC"/>
       </patternFill>
     </fill>
   </fills>
@@ -534,7 +538,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="29">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -555,6 +559,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -571,6 +579,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -591,39 +603,51 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="165" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -674,7 +698,7 @@
       <rgbColor rgb="FF800000"/>
       <rgbColor rgb="FF008080"/>
       <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FF00B0F0"/>
       <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FFCCFFCC"/>
       <rgbColor rgb="FFFFFF99"/>
@@ -684,14 +708,14 @@
       <rgbColor rgb="FFFFCC99"/>
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
-      <rgbColor rgb="FF92D050"/>
+      <rgbColor rgb="FF99CC00"/>
       <rgbColor rgb="FFFFC000"/>
       <rgbColor rgb="FFFF9900"/>
       <rgbColor rgb="FFFF6600"/>
       <rgbColor rgb="FF666699"/>
       <rgbColor rgb="FF969696"/>
       <rgbColor rgb="FF003366"/>
-      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF00B050"/>
       <rgbColor rgb="FF003300"/>
       <rgbColor rgb="FF333300"/>
       <rgbColor rgb="FF993300"/>
@@ -714,20 +738,21 @@
   </sheetPr>
   <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C16" activeCellId="0" sqref="C16"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I12" activeCellId="0" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="38.1488372093023"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="32.3674418604651"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="43.9348837209302"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="21.0418604651163"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="46.2697674418605"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="22.2744186046512"/>
-    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="21.5348837209302"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="10.5813953488372"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="29.0418604651163"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.6883720930233"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="14.7674418604651"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.84651162790698"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="29.0418604651163"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="6.15348837209302"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="17.7209302325581"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="14.153488372093"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="10.3395348837209"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -776,13 +801,13 @@
       <c r="F2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="4" t="n">
+      <c r="G2" s="5" t="n">
         <v>15</v>
       </c>
-      <c r="H2" s="4" t="n">
+      <c r="H2" s="5" t="n">
         <v>15</v>
       </c>
-      <c r="I2" s="4" t="n">
+      <c r="I2" s="5" t="n">
         <v>15</v>
       </c>
     </row>
@@ -803,9 +828,9 @@
       <c r="F3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
@@ -824,13 +849,13 @@
       <c r="F4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="4" t="n">
+      <c r="G4" s="5" t="n">
         <v>10</v>
       </c>
-      <c r="H4" s="4" t="n">
+      <c r="H4" s="5" t="n">
         <v>10</v>
       </c>
-      <c r="I4" s="4" t="n">
+      <c r="I4" s="5" t="n">
         <v>10</v>
       </c>
     </row>
@@ -851,13 +876,13 @@
       <c r="F5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="4" t="n">
+      <c r="G5" s="5" t="n">
         <v>10</v>
       </c>
-      <c r="H5" s="4" t="n">
+      <c r="H5" s="5" t="n">
         <v>10</v>
       </c>
-      <c r="I5" s="4" t="n">
+      <c r="I5" s="5" t="n">
         <v>10</v>
       </c>
     </row>
@@ -878,13 +903,13 @@
       <c r="F6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="4" t="n">
+      <c r="G6" s="5" t="n">
         <v>8</v>
       </c>
-      <c r="H6" s="4" t="n">
+      <c r="H6" s="5" t="n">
         <v>8</v>
       </c>
-      <c r="I6" s="4" t="n">
+      <c r="I6" s="5" t="n">
         <v>8</v>
       </c>
     </row>
@@ -905,13 +930,13 @@
       <c r="F7" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="4" t="n">
-        <v>12</v>
-      </c>
-      <c r="H7" s="4" t="n">
-        <v>12</v>
-      </c>
-      <c r="I7" s="4" t="n">
+      <c r="G7" s="5" t="n">
+        <v>12</v>
+      </c>
+      <c r="H7" s="5" t="n">
+        <v>12</v>
+      </c>
+      <c r="I7" s="5" t="n">
         <v>12</v>
       </c>
     </row>
@@ -932,13 +957,13 @@
       <c r="F8" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="4" t="n">
+      <c r="G8" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="H8" s="4" t="n">
+      <c r="H8" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="I8" s="4" t="n">
+      <c r="I8" s="5" t="n">
         <v>4</v>
       </c>
     </row>
@@ -946,7 +971,7 @@
       <c r="A9" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="6" t="s">
         <v>25</v>
       </c>
       <c r="C9" s="4" t="s">
@@ -959,13 +984,13 @@
       <c r="F9" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G9" s="4" t="n">
+      <c r="G9" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="H9" s="4" t="n">
+      <c r="H9" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="I9" s="4" t="n">
+      <c r="I9" s="5" t="n">
         <v>2</v>
       </c>
     </row>
@@ -986,13 +1011,13 @@
       <c r="F10" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G10" s="4" t="n">
+      <c r="G10" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="H10" s="4" t="n">
+      <c r="H10" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="I10" s="4" t="n">
+      <c r="I10" s="5" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1013,17 +1038,17 @@
       <c r="F11" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G11" s="4" t="n">
+      <c r="G11" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="H11" s="4" t="n">
+      <c r="H11" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="I11" s="4" t="n">
+      <c r="I11" s="5" t="n">
         <v>4</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="3" t="s">
         <v>28</v>
       </c>
@@ -1040,13 +1065,13 @@
       <c r="F12" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G12" s="4" t="n">
+      <c r="G12" s="5" t="n">
         <v>15</v>
       </c>
-      <c r="H12" s="4" t="n">
+      <c r="H12" s="5" t="n">
         <v>15</v>
       </c>
-      <c r="I12" s="4" t="n">
+      <c r="I12" s="5" t="n">
         <v>15</v>
       </c>
     </row>
@@ -1067,13 +1092,13 @@
       <c r="F13" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G13" s="4" t="n">
+      <c r="G13" s="5" t="n">
         <v>10</v>
       </c>
-      <c r="H13" s="4" t="n">
+      <c r="H13" s="5" t="n">
         <v>10</v>
       </c>
-      <c r="I13" s="4" t="n">
+      <c r="I13" s="5" t="n">
         <v>10</v>
       </c>
     </row>
@@ -1096,48 +1121,49 @@
   </sheetPr>
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="33.9674418604651"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="60.9162790697674"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="123.8"/>
-    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="10.5813953488372"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="12.1813953488372"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="11.8139534883721"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="72.8511627906977"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="10.5813953488372"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.9209302325581"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="33.8418604651163"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="263.6"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="6.4"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="6.27441860465116"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="9.96744186046512"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="9.72093023255814"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="57.9627906976744"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="32.7348837209302"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="I1" s="9" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1154,10 +1180,10 @@
       <c r="D2" s="0" t="n">
         <v>100</v>
       </c>
-      <c r="E2" s="0" t="n">
+      <c r="E2" s="10" t="n">
         <v>6</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="11" t="s">
         <v>41</v>
       </c>
       <c r="I2" s="0" t="s">
@@ -1184,164 +1210,164 @@
   <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B32" activeCellId="0" sqref="B32"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.0418604651163"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="83.3116279069767"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="14.646511627907"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="20.6744186046512"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="10.093023255814"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="19.3209302325581"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="12.6744186046512"/>
-    <col collapsed="false" hidden="false" max="11" min="9" style="0" width="7.13953488372093"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="23.3813953488372"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="18.4604651162791"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="11.8139534883721"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="12.4279069767442"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="13.1674418604651"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="61.7767441860465"/>
-    <col collapsed="false" hidden="false" max="1025" min="18" style="0" width="10.5813953488372"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.10697674418605"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.1348837209302"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="14.153488372093"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="5.29302325581395"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="6.4"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="5.29302325581395"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="6.4"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="5.29302325581395"/>
+    <col collapsed="false" hidden="false" max="10" min="9" style="0" width="6.4"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="5.78604651162791"/>
+    <col collapsed="false" hidden="false" max="14" min="13" style="0" width="9.72093023255814"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="8.86046511627907"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="7.87441860465116"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="9.6"/>
+    <col collapsed="false" hidden="false" max="1025" min="18" style="0" width="10.3395348837209"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="K1" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="L1" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="M1" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="N1" s="7" t="s">
+      <c r="N1" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="O1" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="P1" s="6" t="s">
+      <c r="P1" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="Q1" s="7" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="L2" s="9"/>
-      <c r="M2" s="9"/>
-      <c r="Q2" s="8"/>
+      <c r="L2" s="11"/>
+      <c r="M2" s="11"/>
+      <c r="Q2" s="9"/>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D3" s="8"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="L3" s="9"/>
-      <c r="M3" s="9"/>
-      <c r="Q3" s="8"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="11"/>
+      <c r="Q3" s="9"/>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D4" s="8"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="L4" s="9"/>
-      <c r="M4" s="9"/>
-      <c r="Q4" s="8"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="11"/>
+      <c r="Q4" s="9"/>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L5" s="9"/>
-      <c r="M5" s="9"/>
-      <c r="Q5" s="8"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="11"/>
+      <c r="Q5" s="9"/>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L6" s="9"/>
-      <c r="M6" s="9"/>
-      <c r="Q6" s="8"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="11"/>
+      <c r="Q6" s="9"/>
     </row>
     <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L7" s="9"/>
-      <c r="M7" s="9"/>
-      <c r="Q7" s="8"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="11"/>
+      <c r="Q7" s="9"/>
     </row>
     <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L8" s="9"/>
-      <c r="M8" s="9"/>
-      <c r="Q8" s="8"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="11"/>
+      <c r="Q8" s="9"/>
     </row>
     <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L9" s="9"/>
-      <c r="M9" s="9"/>
-      <c r="Q9" s="8"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="11"/>
+      <c r="Q9" s="9"/>
     </row>
     <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L10" s="9"/>
-      <c r="M10" s="9"/>
-      <c r="Q10" s="8"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
+      <c r="Q10" s="9"/>
     </row>
     <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L11" s="9"/>
-      <c r="M11" s="9"/>
-      <c r="Q11" s="8"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="11"/>
+      <c r="Q11" s="9"/>
     </row>
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L12" s="9"/>
-      <c r="M12" s="9"/>
-      <c r="Q12" s="8"/>
+      <c r="L12" s="11"/>
+      <c r="M12" s="11"/>
+      <c r="Q12" s="9"/>
     </row>
     <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L13" s="9"/>
-      <c r="M13" s="9"/>
-      <c r="Q13" s="8"/>
+      <c r="L13" s="11"/>
+      <c r="M13" s="11"/>
+      <c r="Q13" s="9"/>
     </row>
     <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E14" s="12"/>
-      <c r="L14" s="9"/>
-      <c r="M14" s="9"/>
-      <c r="Q14" s="8"/>
+      <c r="E14" s="14"/>
+      <c r="L14" s="11"/>
+      <c r="M14" s="11"/>
+      <c r="Q14" s="9"/>
     </row>
     <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E15" s="13"/>
-      <c r="L15" s="9"/>
-      <c r="M15" s="9"/>
-      <c r="Q15" s="8"/>
+      <c r="E15" s="15"/>
+      <c r="L15" s="11"/>
+      <c r="M15" s="11"/>
+      <c r="Q15" s="9"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -1362,49 +1388,49 @@
   </sheetPr>
   <dimension ref="A1:I14"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E18" activeCellId="0" sqref="E18"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B30" activeCellId="0" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="24.1209302325581"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="127.120930232558"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="69.8976744186047"/>
-    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="18.0883720930233"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="23.3813953488372"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="12.1813953488372"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="18.4604651162791"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="11.8139534883721"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="10.5813953488372"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.9674418604651"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="78.5116279069767"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="14.4"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="14.646511627907"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="12.306976744186"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="5.78604651162791"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="13.046511627907"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="9.72093023255814"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="10.3395348837209"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="I1" s="8" t="s">
         <v>37</v>
       </c>
     </row>
@@ -1412,7 +1438,7 @@
       <c r="A2" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="16" t="s">
         <v>56</v>
       </c>
       <c r="C2" s="0" t="s">
@@ -1421,19 +1447,19 @@
       <c r="D2" s="0" t="n">
         <v>28</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="G2" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="H2" s="9"/>
+      <c r="G2" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="H2" s="11"/>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="16" t="s">
         <v>59</v>
       </c>
       <c r="C3" s="0" t="s">
@@ -1442,13 +1468,13 @@
       <c r="D3" s="0" t="n">
         <v>19</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="G3" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="H3" s="9" t="s">
+      <c r="G3" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="H3" s="11" t="s">
         <v>60</v>
       </c>
     </row>
@@ -1456,7 +1482,7 @@
       <c r="A4" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="16" t="s">
         <v>61</v>
       </c>
       <c r="C4" s="0" t="s">
@@ -1465,19 +1491,19 @@
       <c r="D4" s="0" t="n">
         <v>16</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="G4" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="H4" s="9"/>
+      <c r="G4" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="H4" s="11"/>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" s="16" t="s">
         <v>62</v>
       </c>
       <c r="C5" s="0" t="s">
@@ -1486,19 +1512,19 @@
       <c r="D5" s="0" t="n">
         <v>15</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E5" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="G5" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="H5" s="9"/>
+      <c r="G5" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="H5" s="11"/>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="16" t="s">
         <v>63</v>
       </c>
       <c r="C6" s="0" t="s">
@@ -1507,13 +1533,13 @@
       <c r="D6" s="0" t="n">
         <v>36</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="E6" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="G6" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="H6" s="9" t="s">
+      <c r="G6" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="H6" s="11" t="s">
         <v>60</v>
       </c>
     </row>
@@ -1521,7 +1547,7 @@
       <c r="A7" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="16" t="s">
         <v>64</v>
       </c>
       <c r="C7" s="0" t="s">
@@ -1530,21 +1556,21 @@
       <c r="D7" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="E7" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="G7" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="H7" s="9" t="s">
+      <c r="G7" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="H7" s="11" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="B8" s="16" t="s">
         <v>65</v>
       </c>
       <c r="C8" s="0" t="s">
@@ -1553,10 +1579,10 @@
       <c r="D8" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="E8" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="G8" s="9" t="s">
+      <c r="G8" s="11" t="s">
         <v>41</v>
       </c>
     </row>
@@ -1564,7 +1590,7 @@
       <c r="A9" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B9" s="16" t="s">
         <v>66</v>
       </c>
       <c r="C9" s="0" t="s">
@@ -1573,13 +1599,13 @@
       <c r="D9" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="E9" s="9" t="s">
+      <c r="E9" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="G9" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="H9" s="9" t="s">
+      <c r="G9" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="H9" s="11" t="s">
         <v>67</v>
       </c>
     </row>
@@ -1587,7 +1613,7 @@
       <c r="A10" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="B10" s="16" t="s">
         <v>68</v>
       </c>
       <c r="C10" s="0" t="s">
@@ -1596,13 +1622,13 @@
       <c r="D10" s="0" t="n">
         <v>21</v>
       </c>
-      <c r="E10" s="9" t="s">
+      <c r="E10" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="G10" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="H10" s="9" t="s">
+      <c r="G10" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="H10" s="11" t="s">
         <v>69</v>
       </c>
     </row>
@@ -1610,7 +1636,7 @@
       <c r="A11" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="16" t="s">
         <v>70</v>
       </c>
       <c r="C11" s="0" t="s">
@@ -1619,13 +1645,13 @@
       <c r="D11" s="0" t="n">
         <v>38</v>
       </c>
-      <c r="E11" s="9" t="s">
+      <c r="E11" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="G11" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="H11" s="9" t="s">
+      <c r="G11" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="H11" s="11" t="s">
         <v>67</v>
       </c>
     </row>
@@ -1633,7 +1659,7 @@
       <c r="A12" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="B12" s="14" t="s">
+      <c r="B12" s="16" t="s">
         <v>71</v>
       </c>
       <c r="C12" s="0" t="s">
@@ -1642,13 +1668,13 @@
       <c r="D12" s="0" t="n">
         <v>39</v>
       </c>
-      <c r="E12" s="9" t="s">
+      <c r="E12" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="G12" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="H12" s="9" t="s">
+      <c r="G12" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="H12" s="11" t="s">
         <v>69</v>
       </c>
     </row>
@@ -1656,7 +1682,7 @@
       <c r="A13" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="14" t="s">
+      <c r="B13" s="16" t="s">
         <v>70</v>
       </c>
       <c r="C13" s="0" t="s">
@@ -1665,13 +1691,13 @@
       <c r="D13" s="0" t="n">
         <v>38</v>
       </c>
-      <c r="E13" s="9" t="s">
+      <c r="E13" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="G13" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="H13" s="9" t="s">
+      <c r="G13" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="H13" s="11" t="s">
         <v>69</v>
       </c>
     </row>
@@ -1679,7 +1705,7 @@
       <c r="A14" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="B14" s="14" t="s">
+      <c r="B14" s="16" t="s">
         <v>71</v>
       </c>
       <c r="C14" s="0" t="s">
@@ -1688,13 +1714,13 @@
       <c r="D14" s="0" t="n">
         <v>39</v>
       </c>
-      <c r="E14" s="9" t="s">
+      <c r="E14" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="G14" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="H14" s="9" t="s">
+      <c r="G14" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="H14" s="11" t="s">
         <v>69</v>
       </c>
     </row>
@@ -1717,618 +1743,627 @@
   </sheetPr>
   <dimension ref="A1:S13"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F13" activeCellId="0" sqref="F13"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="T5" activeCellId="0" sqref="T5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.5348837209302"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="56.4837209302326"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="30.8883720930233"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="33.9674418604651"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="19.8139534883721"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="16" width="38.0279069767442"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="6.27441860465116"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.693023255814"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="86.7581395348837"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="35.9348837209302"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="263.6"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="16.246511627907"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="18" width="59.9302325581395"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="7.38604651162791"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="0" width="8.49302325581395"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="6.89302325581395"/>
-    <col collapsed="false" hidden="false" max="12" min="10" style="0" width="7.01395348837209"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="6.64651162790698"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="11.8139534883721"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="15.753488372093"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="11.446511627907"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="10.5813953488372"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="9.47441860465116"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="39.2558139534884"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="7.38604651162791"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="8.49302325581395"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="14.646511627907"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="8.49302325581395"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="7.87441860465116"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="12.0604651162791"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="13.046511627907"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="11.8139534883721"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="10.8279069767442"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="32.3674418604651"/>
     <col collapsed="false" hidden="false" max="20" min="20" style="0" width="4.06046511627907"/>
-    <col collapsed="false" hidden="false" max="1025" min="21" style="0" width="10.093023255814"/>
+    <col collapsed="false" hidden="false" max="1025" min="21" style="0" width="9.84651162790698"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="F1" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="K1" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="L1" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="M1" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="N1" s="7" t="s">
+      <c r="N1" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="O1" s="7" t="s">
+      <c r="O1" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="P1" s="7" t="s">
+      <c r="P1" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="Q1" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="R1" s="6" t="s">
+      <c r="R1" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="S1" s="6" t="s">
+      <c r="S1" s="7" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="E2" s="18" t="s">
+      <c r="E2" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="F2" s="19" t="s">
+      <c r="F2" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="G2" s="9"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="9" t="n">
+        <v>1</v>
+      </c>
       <c r="L2" s="9" t="n">
         <v>2</v>
       </c>
-      <c r="M2" s="9"/>
-      <c r="N2" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="O2" s="9" t="s">
+      <c r="M2" s="11"/>
+      <c r="N2" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="O2" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="P2" s="9"/>
-      <c r="Q2" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="R2" s="9" t="s">
+      <c r="P2" s="11"/>
+      <c r="Q2" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="R2" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="S2" s="8"/>
+      <c r="S2" s="16"/>
     </row>
     <row r="3" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="C3" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="D3" s="9" t="s">
+      <c r="C3" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="D3" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="E3" s="18" t="s">
+      <c r="E3" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="F3" s="19" t="s">
-        <v>79</v>
-      </c>
-      <c r="G3" s="9"/>
-      <c r="H3" s="20"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
+      <c r="F3" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="G3" s="11"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
       <c r="K3" s="9"/>
       <c r="L3" s="9" t="n">
         <v>2</v>
       </c>
-      <c r="M3" s="9"/>
-      <c r="N3" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="O3" s="9" t="s">
+      <c r="M3" s="11"/>
+      <c r="N3" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="O3" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="P3" s="9"/>
-      <c r="Q3" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="R3" s="9" t="s">
+      <c r="P3" s="11"/>
+      <c r="Q3" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="R3" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="S3" s="8"/>
+      <c r="S3" s="16"/>
     </row>
     <row r="4" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="C4" s="9" t="s">
+      <c r="B4" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="C4" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="D4" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="E4" s="18" t="s">
+      <c r="E4" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="F4" s="19" t="s">
+      <c r="F4" s="25" t="s">
         <v>82</v>
       </c>
-      <c r="G4" s="9"/>
-      <c r="H4" s="20"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="24"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
       <c r="K4" s="9" t="n">
         <v>1</v>
       </c>
       <c r="L4" s="9" t="n">
         <v>2</v>
       </c>
-      <c r="M4" s="9"/>
-      <c r="N4" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="O4" s="9" t="s">
+      <c r="M4" s="11"/>
+      <c r="N4" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="O4" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="P4" s="9"/>
-      <c r="Q4" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="R4" s="9" t="s">
+      <c r="P4" s="11"/>
+      <c r="Q4" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="R4" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="S4" s="8"/>
+      <c r="S4" s="16"/>
     </row>
     <row r="5" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="C5" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="D5" s="9" t="s">
+      <c r="C5" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="D5" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="E5" s="18" t="s">
+      <c r="E5" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="F5" s="19" t="s">
+      <c r="F5" s="25" t="s">
         <v>84</v>
       </c>
-      <c r="G5" s="9"/>
-      <c r="H5" s="20"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="24"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
       <c r="K5" s="9" t="n">
         <v>1</v>
       </c>
       <c r="L5" s="9" t="n">
         <v>2</v>
       </c>
-      <c r="M5" s="9"/>
-      <c r="N5" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="O5" s="9" t="s">
+      <c r="M5" s="11"/>
+      <c r="N5" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="O5" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="P5" s="9"/>
-      <c r="Q5" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="R5" s="9" t="s">
+      <c r="P5" s="11"/>
+      <c r="Q5" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="R5" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="S5" s="8"/>
+      <c r="S5" s="16"/>
     </row>
     <row r="6" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="C6" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="D6" s="9" t="s">
+      <c r="C6" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="D6" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="E6" s="18" t="s">
+      <c r="E6" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="F6" s="19" t="s">
+      <c r="F6" s="25" t="s">
         <v>86</v>
       </c>
-      <c r="G6" s="9"/>
-      <c r="H6" s="20"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="24"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
       <c r="K6" s="9" t="n">
         <v>1</v>
       </c>
       <c r="L6" s="9" t="n">
         <v>2</v>
       </c>
-      <c r="M6" s="9"/>
-      <c r="N6" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="O6" s="9" t="s">
+      <c r="M6" s="11"/>
+      <c r="N6" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="O6" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="P6" s="9"/>
-      <c r="Q6" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="R6" s="9" t="s">
+      <c r="P6" s="11"/>
+      <c r="Q6" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="R6" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="S6" s="8"/>
+      <c r="S6" s="16"/>
     </row>
     <row r="7" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="C7" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="D7" s="9" t="s">
+      <c r="C7" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="D7" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="E7" s="18" t="s">
+      <c r="E7" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="F7" s="19" t="s">
+      <c r="F7" s="25" t="s">
         <v>88</v>
       </c>
-      <c r="G7" s="9"/>
-      <c r="H7" s="20"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="24"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
       <c r="K7" s="9" t="n">
         <v>1</v>
       </c>
       <c r="L7" s="9" t="n">
         <v>2</v>
       </c>
-      <c r="M7" s="9"/>
-      <c r="N7" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="O7" s="9" t="s">
+      <c r="M7" s="11"/>
+      <c r="N7" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="O7" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="P7" s="9"/>
-      <c r="Q7" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="R7" s="9" t="s">
+      <c r="P7" s="11"/>
+      <c r="Q7" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="R7" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="S7" s="8"/>
+      <c r="S7" s="16"/>
     </row>
     <row r="8" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="E8" s="18" t="s">
+      <c r="E8" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="F8" s="19" t="s">
+      <c r="F8" s="23" t="s">
         <v>90</v>
       </c>
-      <c r="G8" s="9"/>
-      <c r="H8" s="20"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="9"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="24"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="9" t="n">
+        <v>1</v>
+      </c>
       <c r="L8" s="9" t="n">
         <v>2</v>
       </c>
-      <c r="M8" s="9"/>
-      <c r="N8" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="O8" s="9" t="s">
+      <c r="M8" s="11"/>
+      <c r="N8" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="O8" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="P8" s="9"/>
-      <c r="Q8" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="R8" s="9" t="s">
+      <c r="P8" s="11"/>
+      <c r="Q8" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="R8" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="S8" s="8"/>
+      <c r="S8" s="16"/>
     </row>
     <row r="9" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="21" t="s">
         <v>91</v>
       </c>
-      <c r="C9" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="D9" s="9" t="s">
+      <c r="C9" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="D9" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="E9" s="18" t="s">
+      <c r="E9" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="F9" s="19" t="s">
+      <c r="F9" s="23" t="s">
         <v>92</v>
       </c>
-      <c r="G9" s="9"/>
-      <c r="H9" s="20"/>
-      <c r="K9" s="0" t="n">
+      <c r="G9" s="11"/>
+      <c r="H9" s="24"/>
+      <c r="K9" s="10" t="n">
         <v>4</v>
       </c>
       <c r="L9" s="9" t="n">
         <v>2</v>
       </c>
-      <c r="M9" s="9"/>
-      <c r="N9" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="O9" s="9" t="s">
+      <c r="M9" s="11"/>
+      <c r="N9" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="O9" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="P9" s="9"/>
-      <c r="Q9" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="R9" s="9" t="s">
+      <c r="P9" s="11"/>
+      <c r="Q9" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="R9" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="S9" s="8" t="s">
+      <c r="S9" s="16" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="16" t="s">
         <v>94</v>
       </c>
-      <c r="C10" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="D10" s="9" t="s">
+      <c r="C10" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="D10" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="E10" s="18" t="s">
+      <c r="E10" s="22" t="s">
         <v>95</v>
       </c>
-      <c r="F10" s="21" t="s">
+      <c r="F10" s="26" t="s">
         <v>96</v>
       </c>
-      <c r="G10" s="9" t="s">
+      <c r="G10" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="H10" s="20" t="s">
+      <c r="H10" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="K10" s="0" t="n">
+      <c r="K10" s="10" t="n">
         <v>3</v>
       </c>
-      <c r="L10" s="0" t="n">
+      <c r="L10" s="10" t="n">
         <v>2</v>
       </c>
-      <c r="N10" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="O10" s="9" t="s">
+      <c r="N10" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="O10" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="P10" s="9"/>
-      <c r="Q10" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="R10" s="9" t="s">
+      <c r="P10" s="11"/>
+      <c r="Q10" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="R10" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="S10" s="8" t="s">
+      <c r="S10" s="16" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="21" t="s">
         <v>100</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="D11" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="E11" s="18" t="s">
+      <c r="E11" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="F11" s="22" t="s">
+      <c r="F11" s="27" t="s">
         <v>101</v>
       </c>
-      <c r="H11" s="20"/>
-      <c r="L11" s="0" t="n">
+      <c r="H11" s="24"/>
+      <c r="K11" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" s="10" t="n">
         <v>2</v>
       </c>
-      <c r="N11" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="O11" s="9" t="s">
+      <c r="N11" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="O11" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="Q11" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="R11" s="9" t="s">
+      <c r="Q11" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="R11" s="11" t="s">
         <v>16</v>
       </c>
+      <c r="S11" s="16"/>
     </row>
     <row r="12" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="21" t="s">
         <v>102</v>
       </c>
-      <c r="C12" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="D12" s="9" t="s">
+      <c r="C12" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="D12" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="E12" s="18" t="s">
+      <c r="E12" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="F12" s="22" t="s">
+      <c r="F12" s="27" t="s">
         <v>103</v>
       </c>
-      <c r="H12" s="20"/>
-      <c r="K12" s="0" t="n">
+      <c r="H12" s="24"/>
+      <c r="K12" s="10" t="n">
         <v>4</v>
       </c>
       <c r="L12" s="9" t="n">
         <v>2</v>
       </c>
-      <c r="M12" s="9"/>
-      <c r="N12" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="O12" s="9" t="s">
+      <c r="M12" s="11"/>
+      <c r="N12" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="O12" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="Q12" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="R12" s="9" t="s">
+      <c r="Q12" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="R12" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="S12" s="8" t="s">
+      <c r="S12" s="16" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="9" t="s">
+      <c r="A13" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="14" t="s">
+      <c r="B13" s="16" t="s">
         <v>94</v>
       </c>
-      <c r="C13" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="D13" s="9" t="s">
+      <c r="C13" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="D13" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="E13" s="18" t="s">
+      <c r="E13" s="22" t="s">
         <v>95</v>
       </c>
-      <c r="F13" s="21" t="s">
+      <c r="F13" s="26" t="s">
         <v>96</v>
       </c>
-      <c r="G13" s="9" t="s">
+      <c r="G13" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="H13" s="20" t="s">
+      <c r="H13" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="K13" s="0" t="n">
+      <c r="K13" s="10" t="n">
         <v>3</v>
       </c>
-      <c r="L13" s="0" t="n">
+      <c r="L13" s="10" t="n">
         <v>2</v>
       </c>
-      <c r="N13" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="O13" s="9" t="s">
+      <c r="N13" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="O13" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="P13" s="9"/>
-      <c r="Q13" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="R13" s="9" t="s">
+      <c r="P13" s="11"/>
+      <c r="Q13" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="R13" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="S13" s="8" t="s">
+      <c r="S13" s="16" t="s">
         <v>99</v>
       </c>
     </row>
@@ -2353,87 +2388,88 @@
   </sheetPr>
   <dimension ref="A1:S3"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G3" activeCellId="0" sqref="G3"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="33.9674418604651"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="56.4837209302326"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="30.8883720930233"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="50.5767441860465"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="31.5023255813953"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="27.9348837209302"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="33.9674418604651"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="21.4139534883721"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="46.3953488372093"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="31.5023255813953"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="28.3023255813953"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="33.9674418604651"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="21.4139534883721"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="7.26046511627907"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="12.1813953488372"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="19.2"/>
-    <col collapsed="false" hidden="false" max="1025" min="17" style="0" width="10.5813953488372"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.9209302325581"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="47.1348837209302"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="263.6"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="25.7209302325581"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="25.5953488372093"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="22.7674418604651"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="27.5674418604651"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="17.6"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="23.2604651162791"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="25.5953488372093"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="22.7674418604651"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="27.5674418604651"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="17.6"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="6.27441860465116"/>
+    <col collapsed="false" hidden="false" max="17" min="16" style="0" width="9.72093023255814"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="8.86046511627907"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="7.87441860465116"/>
+    <col collapsed="false" hidden="false" max="1025" min="20" style="0" width="10.3395348837209"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="K1" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="L1" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="M1" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="N1" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="O1" s="7" t="s">
+      <c r="O1" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="P1" s="7" t="s">
+      <c r="P1" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="Q1" s="7" t="s">
+      <c r="Q1" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="R1" s="6" t="s">
+      <c r="R1" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="S1" s="6" t="s">
+      <c r="S1" s="7" t="s">
         <v>51</v>
       </c>
     </row>
@@ -2444,7 +2480,7 @@
       <c r="B2" s="0" t="s">
         <v>114</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="11" t="s">
         <v>40</v>
       </c>
       <c r="D2" s="0" t="s">
@@ -2459,7 +2495,7 @@
       <c r="G2" s="0" t="s">
         <v>117</v>
       </c>
-      <c r="H2" s="0" t="n">
+      <c r="H2" s="10" t="n">
         <v>85</v>
       </c>
       <c r="I2" s="0" t="s">
@@ -2474,13 +2510,13 @@
       <c r="L2" s="0" t="s">
         <v>117</v>
       </c>
-      <c r="M2" s="0" t="n">
+      <c r="M2" s="10" t="n">
         <v>15</v>
       </c>
-      <c r="N2" s="0" t="n">
+      <c r="N2" s="10" t="n">
         <v>10</v>
       </c>
-      <c r="O2" s="9" t="s">
+      <c r="O2" s="11" t="s">
         <v>41</v>
       </c>
       <c r="R2" s="0" t="s">
@@ -2494,10 +2530,10 @@
       <c r="A3" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="16" t="s">
         <v>119</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="11" t="s">
         <v>40</v>
       </c>
       <c r="D3" s="0" t="s">
@@ -2512,13 +2548,14 @@
       <c r="G3" s="0" t="s">
         <v>123</v>
       </c>
-      <c r="H3" s="0" t="n">
+      <c r="H3" s="10" t="n">
         <v>65</v>
       </c>
-      <c r="N3" s="0" t="n">
+      <c r="M3" s="10"/>
+      <c r="N3" s="10" t="n">
         <v>15</v>
       </c>
-      <c r="O3" s="9" t="s">
+      <c r="O3" s="11" t="s">
         <v>41</v>
       </c>
       <c r="R3" s="0" t="s">
@@ -2548,45 +2585,51 @@
   <dimension ref="A1:J1"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.5813953488372"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.2279069767442"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="10.5813953488372"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.10697674418605"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="14.153488372093"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="15.1348837209302"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="6.4"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="6.27441860465116"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="9.72093023255814"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="8.86046511627907"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="7.87441860465116"/>
+    <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="10.3395348837209"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="C1" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" s="7" t="s">
         <v>51</v>
       </c>
     </row>

--- a/Projects/CCBZA/Data/Template_QSR.xlsx
+++ b/Projects/CCBZA/Data/Template_QSR.xlsx
@@ -20,6 +20,7 @@
     <definedName function="false" hidden="true" localSheetId="4" name="_xlnm._FilterDatabase" vbProcedure="false">Availability!$A$1:$S$13</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_FilterDatabase_0" vbProcedure="false">Availability!$A$1:$S$13</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase" vbProcedure="false">Availability!$A$1:$S$13</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0" vbProcedure="false">Availability!$A$1:$S$13</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="לויעמ" vbProcedure="false">Availability!$A$1:$S$13</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
@@ -76,7 +77,7 @@
     <t xml:space="preserve">MERCHANDISING</t>
   </si>
   <si>
-    <t xml:space="preserve">Merchandising</t>
+    <t xml:space="preserve">Merchandise</t>
   </si>
   <si>
     <t xml:space="preserve">SOS, Planogram</t>
@@ -124,7 +125,7 @@
     <t xml:space="preserve">Availability and Pricing</t>
   </si>
   <si>
-    <t xml:space="preserve">Cooler</t>
+    <t xml:space="preserve">Bonus Coolers</t>
   </si>
   <si>
     <t xml:space="preserve">Atomic KPI Name</t>
@@ -538,7 +539,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="27">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -600,14 +601,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -739,20 +732,20 @@
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I12" activeCellId="0" sqref="I12"/>
+      <selection pane="topLeft" activeCell="B20" activeCellId="0" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="29.0418604651163"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.6883720930233"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="14.7674418604651"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.84651162790698"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="29.0418604651163"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="6.15348837209302"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="17.7209302325581"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="14.153488372093"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="10.3395348837209"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="29.7813953488372"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.306976744186"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="15.1348837209302"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.093023255814"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="29.7813953488372"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="6.27441860465116"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="18.2139534883721"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="14.5209302325581"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="10.5813953488372"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -811,11 +804,11 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="5" t="s">
         <v>14</v>
       </c>
       <c r="C3" s="4" t="s">
@@ -1075,11 +1068,11 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="5" t="s">
         <v>30</v>
       </c>
       <c r="C13" s="4" t="s">
@@ -1122,20 +1115,20 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.9209302325581"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="33.8418604651163"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="263.6"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="6.4"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="6.27441860465116"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="9.96744186046512"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="9.72093023255814"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="57.9627906976744"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="32.7348837209302"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.1674418604651"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="34.8279069767442"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="271.720930232558"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="6.52093023255814"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="6.4"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="10.2139534883721"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="9.96744186046512"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="59.6837209302326"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="33.7209302325581"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1167,8 +1160,8 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="5" t="s">
         <v>14</v>
       </c>
       <c r="B2" s="0" t="s">
@@ -1215,21 +1208,22 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.10697674418605"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.1348837209302"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="14.153488372093"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.35348837209302"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.506976744186"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="14.5209302325581"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="5.29302325581395"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="6.4"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="6.52093023255814"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="5.29302325581395"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="6.4"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="6.52093023255814"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="0" width="5.29302325581395"/>
-    <col collapsed="false" hidden="false" max="10" min="9" style="0" width="6.4"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="5.78604651162791"/>
-    <col collapsed="false" hidden="false" max="14" min="13" style="0" width="9.72093023255814"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="8.86046511627907"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="7.87441860465116"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="9.6"/>
-    <col collapsed="false" hidden="false" max="1025" min="18" style="0" width="10.3395348837209"/>
+    <col collapsed="false" hidden="false" max="10" min="9" style="0" width="6.52093023255814"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="5.90697674418605"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="8.86046511627907"/>
+    <col collapsed="false" hidden="false" max="14" min="13" style="0" width="9.96744186046512"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="9.10697674418605"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="8"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="9.84651162790698"/>
+    <col collapsed="false" hidden="false" max="1025" min="18" style="0" width="10.5813953488372"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1389,20 +1383,21 @@
   <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B30" activeCellId="0" sqref="B30"/>
+      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.9674418604651"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="78.5116279069767"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="14.4"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="14.646511627907"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="12.306976744186"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="5.78604651162791"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="13.046511627907"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="9.72093023255814"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="10.3395348837209"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.4604651162791"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="80.8511627906977"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="14.7674418604651"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.0139534883721"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="12.553488372093"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="5.90697674418605"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="8.86046511627907"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="13.293023255814"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="9.96744186046512"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="10.5813953488372"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1438,7 +1433,7 @@
       <c r="A2" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="11" t="s">
         <v>56</v>
       </c>
       <c r="C2" s="0" t="s">
@@ -1459,7 +1454,7 @@
       <c r="A3" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="11" t="s">
         <v>59</v>
       </c>
       <c r="C3" s="0" t="s">
@@ -1482,7 +1477,7 @@
       <c r="A4" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="11" t="s">
         <v>61</v>
       </c>
       <c r="C4" s="0" t="s">
@@ -1503,7 +1498,7 @@
       <c r="A5" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="11" t="s">
         <v>62</v>
       </c>
       <c r="C5" s="0" t="s">
@@ -1524,7 +1519,7 @@
       <c r="A6" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="11" t="s">
         <v>63</v>
       </c>
       <c r="C6" s="0" t="s">
@@ -1547,7 +1542,7 @@
       <c r="A7" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="11" t="s">
         <v>64</v>
       </c>
       <c r="C7" s="0" t="s">
@@ -1566,11 +1561,11 @@
         <v>60</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="17" t="s">
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="11" t="s">
         <v>65</v>
       </c>
       <c r="C8" s="0" t="s">
@@ -1590,7 +1585,7 @@
       <c r="A9" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="11" t="s">
         <v>66</v>
       </c>
       <c r="C9" s="0" t="s">
@@ -1613,7 +1608,7 @@
       <c r="A10" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="11" t="s">
         <v>68</v>
       </c>
       <c r="C10" s="0" t="s">
@@ -1636,7 +1631,7 @@
       <c r="A11" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="11" t="s">
         <v>70</v>
       </c>
       <c r="C11" s="0" t="s">
@@ -1659,7 +1654,7 @@
       <c r="A12" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="B12" s="16" t="s">
+      <c r="B12" s="11" t="s">
         <v>71</v>
       </c>
       <c r="C12" s="0" t="s">
@@ -1682,7 +1677,7 @@
       <c r="A13" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="16" t="s">
+      <c r="B13" s="11" t="s">
         <v>70</v>
       </c>
       <c r="C13" s="0" t="s">
@@ -1705,7 +1700,7 @@
       <c r="A14" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="B14" s="16" t="s">
+      <c r="B14" s="11" t="s">
         <v>71</v>
       </c>
       <c r="C14" s="0" t="s">
@@ -1743,32 +1738,33 @@
   </sheetPr>
   <dimension ref="A1:S13"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="T5" activeCellId="0" sqref="T5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.693023255814"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="86.7581395348837"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="35.9348837209302"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="263.6"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="16.246511627907"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="18" width="59.9302325581395"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="7.38604651162791"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="8.49302325581395"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="7.38604651162791"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="8.49302325581395"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="14.646511627907"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="8.49302325581395"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="7.87441860465116"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="12.0604651162791"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="13.046511627907"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="11.8139534883721"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="10.8279069767442"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="32.3674418604651"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.0604651162791"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="89.3441860465116"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="36.9209302325581"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="271.720930232558"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="16.7348837209302"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="16" width="61.6558139534884"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="7.50697674418605"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="8.73953488372093"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="7.50697674418605"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="8.73953488372093"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="15.0139534883721"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="8.73953488372093"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="8"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="12.306976744186"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="13.293023255814"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="12.1813953488372"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="11.2"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="8.86046511627907"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="33.3488372093023"/>
     <col collapsed="false" hidden="false" max="20" min="20" style="0" width="4.06046511627907"/>
-    <col collapsed="false" hidden="false" max="1025" min="21" style="0" width="9.84651162790698"/>
+    <col collapsed="false" hidden="false" max="1025" min="21" style="0" width="10.093023255814"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1787,7 +1783,7 @@
       <c r="E1" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="F1" s="17" t="s">
         <v>44</v>
       </c>
       <c r="G1" s="7" t="s">
@@ -1831,26 +1827,26 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="11" t="s">
         <v>75</v>
       </c>
       <c r="D2" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="E2" s="22" t="s">
+      <c r="E2" s="20" t="s">
         <v>76</v>
       </c>
-      <c r="F2" s="23" t="s">
+      <c r="F2" s="21" t="s">
         <v>77</v>
       </c>
       <c r="G2" s="11"/>
-      <c r="H2" s="24"/>
+      <c r="H2" s="22"/>
       <c r="I2" s="11"/>
       <c r="J2" s="11"/>
       <c r="K2" s="9" t="n">
@@ -1873,29 +1869,29 @@
       <c r="R2" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="S2" s="16"/>
+      <c r="S2" s="11"/>
     </row>
     <row r="3" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="11" t="s">
         <v>79</v>
       </c>
       <c r="D3" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="E3" s="22" t="s">
+      <c r="E3" s="20" t="s">
         <v>76</v>
       </c>
-      <c r="F3" s="23" t="s">
+      <c r="F3" s="21" t="s">
         <v>80</v>
       </c>
       <c r="G3" s="11"/>
-      <c r="H3" s="24"/>
+      <c r="H3" s="22"/>
       <c r="I3" s="11"/>
       <c r="J3" s="11"/>
       <c r="K3" s="9"/>
@@ -1916,29 +1912,29 @@
       <c r="R3" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="S3" s="16"/>
+      <c r="S3" s="11"/>
     </row>
     <row r="4" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="20" t="s">
+      <c r="A4" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="11" t="s">
         <v>75</v>
       </c>
       <c r="D4" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="E4" s="22" t="s">
+      <c r="E4" s="20" t="s">
         <v>76</v>
       </c>
-      <c r="F4" s="25" t="s">
+      <c r="F4" s="23" t="s">
         <v>82</v>
       </c>
       <c r="G4" s="11"/>
-      <c r="H4" s="24"/>
+      <c r="H4" s="22"/>
       <c r="I4" s="11"/>
       <c r="J4" s="11"/>
       <c r="K4" s="9" t="n">
@@ -1961,29 +1957,29 @@
       <c r="R4" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="S4" s="16"/>
+      <c r="S4" s="11"/>
     </row>
     <row r="5" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="20" t="s">
+      <c r="A5" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="C5" s="11" t="s">
         <v>75</v>
       </c>
       <c r="D5" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="E5" s="22" t="s">
+      <c r="E5" s="20" t="s">
         <v>76</v>
       </c>
-      <c r="F5" s="25" t="s">
+      <c r="F5" s="23" t="s">
         <v>84</v>
       </c>
       <c r="G5" s="11"/>
-      <c r="H5" s="24"/>
+      <c r="H5" s="22"/>
       <c r="I5" s="11"/>
       <c r="J5" s="11"/>
       <c r="K5" s="9" t="n">
@@ -2006,29 +2002,29 @@
       <c r="R5" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="S5" s="16"/>
+      <c r="S5" s="11"/>
     </row>
     <row r="6" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="20" t="s">
+      <c r="A6" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="C6" s="11" t="s">
         <v>75</v>
       </c>
       <c r="D6" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="E6" s="22" t="s">
+      <c r="E6" s="20" t="s">
         <v>76</v>
       </c>
-      <c r="F6" s="25" t="s">
+      <c r="F6" s="23" t="s">
         <v>86</v>
       </c>
       <c r="G6" s="11"/>
-      <c r="H6" s="24"/>
+      <c r="H6" s="22"/>
       <c r="I6" s="11"/>
       <c r="J6" s="11"/>
       <c r="K6" s="9" t="n">
@@ -2051,29 +2047,29 @@
       <c r="R6" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="S6" s="16"/>
+      <c r="S6" s="11"/>
     </row>
     <row r="7" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="20" t="s">
+      <c r="A7" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="C7" s="16" t="s">
+      <c r="C7" s="11" t="s">
         <v>75</v>
       </c>
       <c r="D7" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="E7" s="22" t="s">
+      <c r="E7" s="20" t="s">
         <v>76</v>
       </c>
-      <c r="F7" s="25" t="s">
+      <c r="F7" s="23" t="s">
         <v>88</v>
       </c>
       <c r="G7" s="11"/>
-      <c r="H7" s="24"/>
+      <c r="H7" s="22"/>
       <c r="I7" s="11"/>
       <c r="J7" s="11"/>
       <c r="K7" s="9" t="n">
@@ -2096,29 +2092,29 @@
       <c r="R7" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="S7" s="16"/>
+      <c r="S7" s="11"/>
     </row>
     <row r="8" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="20" t="s">
+      <c r="A8" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="21" t="s">
+      <c r="B8" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="C8" s="16" t="s">
+      <c r="C8" s="11" t="s">
         <v>75</v>
       </c>
       <c r="D8" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="E8" s="22" t="s">
+      <c r="E8" s="20" t="s">
         <v>76</v>
       </c>
-      <c r="F8" s="23" t="s">
+      <c r="F8" s="21" t="s">
         <v>90</v>
       </c>
       <c r="G8" s="11"/>
-      <c r="H8" s="24"/>
+      <c r="H8" s="22"/>
       <c r="I8" s="11"/>
       <c r="J8" s="11"/>
       <c r="K8" s="9" t="n">
@@ -2141,29 +2137,29 @@
       <c r="R8" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="S8" s="16"/>
+      <c r="S8" s="11"/>
     </row>
     <row r="9" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="20" t="s">
+      <c r="A9" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="21" t="s">
+      <c r="B9" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="C9" s="16" t="s">
+      <c r="C9" s="11" t="s">
         <v>75</v>
       </c>
       <c r="D9" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="E9" s="22" t="s">
+      <c r="E9" s="20" t="s">
         <v>76</v>
       </c>
-      <c r="F9" s="23" t="s">
+      <c r="F9" s="21" t="s">
         <v>92</v>
       </c>
       <c r="G9" s="11"/>
-      <c r="H9" s="24"/>
+      <c r="H9" s="22"/>
       <c r="K9" s="10" t="n">
         <v>4</v>
       </c>
@@ -2184,27 +2180,27 @@
       <c r="R9" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="S9" s="16" t="s">
+      <c r="S9" s="11" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="20" t="s">
+      <c r="A10" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="C10" s="16" t="s">
+      <c r="C10" s="11" t="s">
         <v>75</v>
       </c>
       <c r="D10" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="E10" s="22" t="s">
+      <c r="E10" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="F10" s="26" t="s">
+      <c r="F10" s="24" t="s">
         <v>96</v>
       </c>
       <c r="G10" s="11" t="s">
@@ -2232,30 +2228,30 @@
       <c r="R10" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="S10" s="16" t="s">
+      <c r="S10" s="11" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="20" t="s">
+      <c r="A11" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="21" t="s">
+      <c r="B11" s="19" t="s">
         <v>100</v>
       </c>
-      <c r="C11" s="16" t="s">
+      <c r="C11" s="11" t="s">
         <v>75</v>
       </c>
       <c r="D11" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="E11" s="22" t="s">
+      <c r="E11" s="20" t="s">
         <v>76</v>
       </c>
-      <c r="F11" s="27" t="s">
+      <c r="F11" s="25" t="s">
         <v>101</v>
       </c>
-      <c r="H11" s="24"/>
+      <c r="H11" s="22"/>
       <c r="K11" s="10" t="n">
         <v>1</v>
       </c>
@@ -2274,28 +2270,28 @@
       <c r="R11" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="S11" s="16"/>
+      <c r="S11" s="11"/>
     </row>
     <row r="12" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="21" t="s">
+      <c r="B12" s="19" t="s">
         <v>102</v>
       </c>
-      <c r="C12" s="16" t="s">
+      <c r="C12" s="11" t="s">
         <v>75</v>
       </c>
       <c r="D12" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="E12" s="22" t="s">
+      <c r="E12" s="20" t="s">
         <v>76</v>
       </c>
-      <c r="F12" s="27" t="s">
+      <c r="F12" s="25" t="s">
         <v>103</v>
       </c>
-      <c r="H12" s="24"/>
+      <c r="H12" s="22"/>
       <c r="K12" s="10" t="n">
         <v>4</v>
       </c>
@@ -2315,27 +2311,27 @@
       <c r="R12" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="S12" s="16" t="s">
+      <c r="S12" s="11" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="20" t="s">
+      <c r="A13" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="16" t="s">
+      <c r="B13" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="C13" s="16" t="s">
+      <c r="C13" s="11" t="s">
         <v>75</v>
       </c>
       <c r="D13" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="E13" s="22" t="s">
+      <c r="E13" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="F13" s="26" t="s">
+      <c r="F13" s="24" t="s">
         <v>96</v>
       </c>
       <c r="G13" s="11" t="s">
@@ -2363,7 +2359,7 @@
       <c r="R13" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="S13" s="16" t="s">
+      <c r="S13" s="11" t="s">
         <v>99</v>
       </c>
     </row>
@@ -2389,29 +2385,30 @@
   <dimension ref="A1:S3"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="B13" activeCellId="0" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.9209302325581"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="47.1348837209302"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="263.6"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="25.7209302325581"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="25.5953488372093"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="22.7674418604651"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="27.5674418604651"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="17.6"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="23.2604651162791"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="25.5953488372093"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="22.7674418604651"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="27.5674418604651"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="17.6"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="6.27441860465116"/>
-    <col collapsed="false" hidden="false" max="17" min="16" style="0" width="9.72093023255814"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="8.86046511627907"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="7.87441860465116"/>
-    <col collapsed="false" hidden="false" max="1025" min="20" style="0" width="10.3395348837209"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.1674418604651"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="48.4883720930233"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="271.720930232558"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="26.4604651162791"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="26.3348837209302"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="23.3813953488372"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="28.4279069767442"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="18.0883720930233"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="23.8744186046512"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="26.3348837209302"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="23.3813953488372"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="28.4279069767442"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="18.0883720930233"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="6.4"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="8.86046511627907"/>
+    <col collapsed="false" hidden="false" max="17" min="16" style="0" width="9.96744186046512"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="9.10697674418605"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="8"/>
+    <col collapsed="false" hidden="false" max="1025" min="20" style="0" width="10.5813953488372"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2473,8 +2470,8 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="5" t="s">
         <v>14</v>
       </c>
       <c r="B2" s="0" t="s">
@@ -2526,11 +2523,11 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="11" t="s">
         <v>119</v>
       </c>
       <c r="C3" s="11" t="s">
@@ -2585,30 +2582,31 @@
   <dimension ref="A1:J1"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="J12" activeCellId="0" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.10697674418605"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="14.153488372093"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="15.1348837209302"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="6.4"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="6.27441860465116"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="9.72093023255814"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="8.86046511627907"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="7.87441860465116"/>
-    <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="10.3395348837209"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.35348837209302"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="14.5209302325581"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="15.506976744186"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="6.52093023255814"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="6.4"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="8.86046511627907"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="9.96744186046512"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="9.10697674418605"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="8"/>
+    <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="10.5813953488372"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="C1" s="26" t="s">
         <v>31</v>
       </c>
       <c r="D1" s="7" t="s">
